--- a/biology/Zoologie/Aldrine/Aldrine.xlsx
+++ b/biology/Zoologie/Aldrine/Aldrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aldrine est un insecticide chloré, non biodégradable. Il est considéré comme un POP (polluant organique persistant) et fait partie de la liste EPA des substances extrêmement dangereuses. Il a été utilisé au Canada pendant plus de 25 ans pour tuer les insectes dans les cultures, les forêts et dans les industries.
@@ -512,7 +524,9 @@
           <t>Précaution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Loi sur la santé et la sécurité du travail vise l'élimination des dangers à la source. Lorsque des mesures d'ingénierie et les modifications de méthode de travail ne sont pas suffisantes pour réduire l'exposition à cette substance, le port d’équipement de protection individuelle peut être obligatoire. Ces équipements de protection doivent être conformes à la réglementation.
 Voies respiratoires :
